--- a/Database/Excel/Product groups/Бытовая техника/Винные шкафы.xlsx
+++ b/Database/Excel/Product groups/Бытовая техника/Винные шкафы.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="9930"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Винные шкафы'!$B$1:$X$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>Название</t>
   </si>
@@ -226,13 +221,28 @@
   </si>
   <si>
     <t>суперзаморозка</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,24 +844,24 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -879,6 +889,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -895,7 +973,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="008CFF"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -933,7 +1011,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -985,7 +1063,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1179,19 +1257,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1223,7 +1301,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1417,9 @@
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1349,8 +1429,12 @@
       <c r="O2" s="5">
         <v>503</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R2" s="5">
         <v>38</v>
       </c>
@@ -1375,7 +1459,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1499,12 @@
       <c r="O3" s="2">
         <v>228</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R3" s="2">
         <v>41</v>
       </c>
@@ -1449,7 +1537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1489,8 +1577,12 @@
       <c r="O4" s="2">
         <v>228</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R4" s="2">
         <v>41</v>
       </c>
@@ -1523,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1563,8 +1655,12 @@
       <c r="O5" s="2">
         <v>368</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R5" s="2">
         <v>42</v>
       </c>
@@ -1589,7 +1685,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1629,8 +1725,12 @@
       <c r="O6" s="2">
         <v>368</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R6" s="2">
         <v>42</v>
       </c>
@@ -1655,7 +1755,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1695,8 +1795,12 @@
       <c r="O7" s="2">
         <v>368</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R7" s="2">
         <v>42</v>
       </c>
@@ -1721,7 +1825,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1761,8 +1865,12 @@
       <c r="O8" s="2">
         <v>368</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R8" s="2">
         <v>42</v>
       </c>
